--- a/ela_proficiency_charter_schools_medium_district_size_only.xlsx
+++ b/ela_proficiency_charter_schools_medium_district_size_only.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t># ELA Proficiency - Children with Disabilities</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +589,11 @@
       <c r="Q2" t="n">
         <v>19</v>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -649,6 +659,11 @@
       <c r="Q3" t="n">
         <v>6</v>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -714,6 +729,11 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -779,6 +799,11 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -843,6 +868,11 @@
       </c>
       <c r="Q6" t="n">
         <v>15</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/ela_proficiency_charter_schools_medium_district_size_only.xlsx
+++ b/ela_proficiency_charter_schools_medium_district_size_only.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,11 +519,6 @@
           <t># ELA Proficiency - Children with Disabilities</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -589,11 +584,6 @@
       <c r="Q2" t="n">
         <v>19</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Up to Standard</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -659,11 +649,6 @@
       <c r="Q3" t="n">
         <v>6</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Up to Standard</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -729,11 +714,6 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Up to Standard</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -799,11 +779,6 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Up to Standard</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -868,11 +843,6 @@
       </c>
       <c r="Q6" t="n">
         <v>15</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Up to Standard</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/ela_proficiency_charter_schools_medium_district_size_only.xlsx
+++ b/ela_proficiency_charter_schools_medium_district_size_only.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t># ELA Proficiency Status</t>
         </is>
       </c>
     </row>
